--- a/data_BASE/钓竿属性表.xlsx
+++ b/data_BASE/钓竿属性表.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new13\Desktop\lurewiki\data_BASE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="钓竿基础属性表" sheetId="1" r:id="rId1"/>
     <sheet name="钓竿硬度" sheetId="2" r:id="rId2"/>
     <sheet name="型号" sheetId="4" r:id="rId3"/>
     <sheet name="钓竿调性" sheetId="3" r:id="rId4"/>
+    <sheet name="品牌商标表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +277,18 @@
   </si>
   <si>
     <t>枪柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商标（图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIKI_TABLE_ROD_BRAND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -939,4 +946,33 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_BASE/钓竿属性表.xlsx
+++ b/data_BASE/钓竿属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="钓竿基础属性表" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CATEGORY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,114 +173,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分类（直，枪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LURE_FIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LURE_WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饵重（oz）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：1LB=0.45Kg、1OZ=28.35g</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIKI_TABLE_ROD_MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIKI_TABLE_ROD_ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含碳量（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARBON_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPINNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商标（图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIKI_TABLE_ROD_BRAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类（直，枪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LURE_FIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LURE_WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饵重（oz）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：1LB=0.45Kg、1OZ=28.35g</t>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIKI_TABLE_ROD_MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIKI_TABLE_ROD_ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含碳量（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARBON_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPINNING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商标（图）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIKI_TABLE_ROD_BRAND</t>
+    <t>系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,134 +649,134 @@
   <sheetData>
     <row r="1" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -797,55 +797,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -869,23 +869,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -906,40 +906,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -960,15 +960,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
